--- a/beautified_analysis.xlsx
+++ b/beautified_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - HWR Berlin\SolvingGames\FTL\Data-Analysis-FTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_99002646D76E924F65F436D5DC67C28D48D4BDC7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6716DA18-B8DE-483C-BB2A-231E26BC9634}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="11_99002646D76E924F65F436D5DC67C28D48D4BDC7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00597AF9-8A8F-4F28-90B7-D17C989F2294}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3510" windowWidth="14400" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="788">
   <si>
     <t>ship</t>
   </si>
@@ -2386,6 +2386,9 @@
   </si>
   <si>
     <t>artillery capacity</t>
+  </si>
+  <si>
+    <t>second most used drone:</t>
   </si>
 </sst>
 </file>
@@ -2810,7 +2813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2896,6 +2899,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2905,11 +2914,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -54837,8 +54843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54926,7 +54932,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="54" t="s">
         <v>723</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -54935,8 +54941,8 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
-      <c r="B10" s="15" t="s">
-        <v>723</v>
+      <c r="B10" s="54" t="s">
+        <v>787</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>662</v>
@@ -54991,7 +54997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -55073,7 +55079,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>747</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -55135,8 +55141,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="9" t="s">
         <v>750</v>
       </c>
@@ -55199,8 +55205,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="9" t="s">
         <v>751</v>
       </c>
@@ -55263,8 +55269,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="10" t="s">
         <v>752</v>
       </c>
@@ -55327,7 +55333,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="45" t="s">
         <v>753</v>
       </c>
@@ -55387,8 +55393,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="9" t="s">
         <v>750</v>
       </c>
@@ -55451,8 +55457,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="9" t="s">
         <v>751</v>
       </c>
@@ -55515,8 +55521,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="10" t="s">
         <v>752</v>
       </c>
@@ -55579,7 +55585,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="45" t="s">
         <v>754</v>
       </c>
@@ -55639,8 +55645,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="9" t="s">
         <v>750</v>
       </c>
@@ -55703,8 +55709,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="9" t="s">
         <v>751</v>
       </c>
@@ -55767,8 +55773,8 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="10" t="s">
         <v>752</v>
       </c>
@@ -55831,7 +55837,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="45" t="s">
         <v>755</v>
       </c>
@@ -55881,8 +55887,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="9" t="s">
         <v>750</v>
       </c>
@@ -55935,8 +55941,8 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="9" t="s">
         <v>751</v>
       </c>
@@ -55989,8 +55995,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="10" t="s">
         <v>752</v>
       </c>
@@ -56043,7 +56049,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="45" t="s">
         <v>756</v>
       </c>
@@ -56093,8 +56099,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="9" t="s">
         <v>750</v>
       </c>
@@ -56147,8 +56153,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="9" t="s">
         <v>751</v>
       </c>
@@ -56201,8 +56207,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="10" t="s">
         <v>752</v>
       </c>
@@ -56255,7 +56261,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="52" t="s">
         <v>757</v>
       </c>
       <c r="B22" s="45" t="s">
@@ -56317,8 +56323,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="9" t="s">
         <v>750</v>
       </c>
@@ -56381,8 +56387,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="9" t="s">
         <v>751</v>
       </c>
@@ -56445,8 +56451,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="10" t="s">
         <v>752</v>
       </c>
@@ -56509,7 +56515,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="45" t="s">
         <v>758</v>
       </c>
@@ -56569,8 +56575,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="9" t="s">
         <v>750</v>
       </c>
@@ -56633,8 +56639,8 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="9" t="s">
         <v>751</v>
       </c>
@@ -56697,8 +56703,8 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="10" t="s">
         <v>752</v>
       </c>
@@ -56761,7 +56767,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="52" t="s">
         <v>759</v>
       </c>
       <c r="B30" s="45" t="s">
@@ -56821,8 +56827,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="9" t="s">
         <v>750</v>
       </c>
@@ -56883,8 +56889,8 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="9" t="s">
         <v>751</v>
       </c>
@@ -56945,8 +56951,8 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="10" t="s">
         <v>752</v>
       </c>
@@ -57007,7 +57013,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="45" t="s">
         <v>761</v>
       </c>
@@ -57057,8 +57063,8 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="9" t="s">
         <v>750</v>
       </c>
@@ -57111,8 +57117,8 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="9" t="s">
         <v>751</v>
       </c>
@@ -57165,8 +57171,8 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="10" t="s">
         <v>752</v>
       </c>
@@ -57219,7 +57225,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="45" t="s">
         <v>762</v>
       </c>
@@ -57279,8 +57285,8 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="9" t="s">
         <v>750</v>
       </c>
@@ -57343,8 +57349,8 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="9" t="s">
         <v>751</v>
       </c>
@@ -57407,8 +57413,8 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="10" t="s">
         <v>752</v>
       </c>
@@ -57471,7 +57477,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="45" t="s">
         <v>763</v>
       </c>
@@ -57531,8 +57537,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="9" t="s">
         <v>750</v>
       </c>
@@ -57595,8 +57601,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="9" t="s">
         <v>751</v>
       </c>
@@ -57659,8 +57665,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="53"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="10" t="s">
         <v>752</v>
       </c>
@@ -57723,7 +57729,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="45" t="s">
         <v>764</v>
       </c>
@@ -57783,8 +57789,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="9" t="s">
         <v>750</v>
       </c>
@@ -57847,8 +57853,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="9" t="s">
         <v>751</v>
       </c>
@@ -57911,8 +57917,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="53"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="10" t="s">
         <v>752</v>
       </c>
@@ -57975,7 +57981,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="52" t="s">
         <v>765</v>
       </c>
       <c r="B50" s="45" t="s">
@@ -58027,8 +58033,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="9" t="s">
         <v>750</v>
       </c>
@@ -58081,8 +58087,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="9" t="s">
         <v>751</v>
       </c>
@@ -58135,8 +58141,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="50"/>
-      <c r="B53" s="53"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="10" t="s">
         <v>752</v>
       </c>
@@ -58189,7 +58195,7 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="45" t="s">
         <v>767</v>
       </c>
@@ -58229,8 +58235,8 @@
       <c r="V54" s="30"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="9" t="s">
         <v>750</v>
       </c>
@@ -58283,8 +58289,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="9" t="s">
         <v>751</v>
       </c>
@@ -58335,8 +58341,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="50"/>
-      <c r="B57" s="53"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="10" t="s">
         <v>752</v>
       </c>
@@ -58389,7 +58395,7 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="45" t="s">
         <v>768</v>
       </c>
@@ -58447,8 +58453,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="9" t="s">
         <v>750</v>
       </c>
@@ -58509,8 +58515,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="9" t="s">
         <v>751</v>
       </c>
@@ -58571,8 +58577,8 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50"/>
-      <c r="B61" s="53"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="10" t="s">
         <v>752</v>
       </c>
@@ -58633,7 +58639,7 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="51" t="s">
         <v>769</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -58693,8 +58699,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="9" t="s">
         <v>750</v>
       </c>
@@ -58755,8 +58761,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="52"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="9" t="s">
         <v>751</v>
       </c>
@@ -58817,8 +58823,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="50"/>
-      <c r="B65" s="53"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="10" t="s">
         <v>752</v>
       </c>
@@ -58879,7 +58885,7 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="45" t="s">
         <v>771</v>
       </c>
@@ -58937,8 +58943,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="9" t="s">
         <v>750</v>
       </c>
@@ -58999,8 +59005,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="52"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="9" t="s">
         <v>751</v>
       </c>
@@ -59061,8 +59067,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="50"/>
-      <c r="B69" s="53"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="10" t="s">
         <v>752</v>
       </c>
@@ -59123,7 +59129,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="45" t="s">
         <v>772</v>
       </c>
@@ -59181,8 +59187,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="9" t="s">
         <v>750</v>
       </c>
@@ -59243,8 +59249,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="9" t="s">
         <v>751</v>
       </c>
@@ -59305,8 +59311,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="50"/>
-      <c r="B73" s="53"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="10" t="s">
         <v>752</v>
       </c>
@@ -59367,7 +59373,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="45" t="s">
         <v>773</v>
       </c>
@@ -59425,8 +59431,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="52"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="49"/>
       <c r="C75" s="9" t="s">
         <v>750</v>
       </c>
@@ -59487,8 +59493,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="52"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="9" t="s">
         <v>751</v>
       </c>
@@ -59549,8 +59555,8 @@
       </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="50"/>
-      <c r="B77" s="53"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="10" t="s">
         <v>752</v>
       </c>
@@ -59611,7 +59617,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="45" t="s">
         <v>774</v>
       </c>
@@ -59669,8 +59675,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="52"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="9" t="s">
         <v>750</v>
       </c>
@@ -59731,8 +59737,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="B80" s="52"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="9" t="s">
         <v>751</v>
       </c>
@@ -59793,8 +59799,8 @@
       </c>
     </row>
     <row r="81" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="50"/>
-      <c r="B81" s="53"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="10" t="s">
         <v>752</v>
       </c>
@@ -59855,7 +59861,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="45" t="s">
         <v>775</v>
       </c>
@@ -59913,8 +59919,8 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="52"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="9" t="s">
         <v>750</v>
       </c>
@@ -59975,8 +59981,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="52"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="49"/>
       <c r="C84" s="9" t="s">
         <v>751</v>
       </c>
@@ -60037,8 +60043,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="50"/>
-      <c r="B85" s="53"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="10" t="s">
         <v>752</v>
       </c>
@@ -60099,7 +60105,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="45" t="s">
         <v>776</v>
       </c>
@@ -60157,8 +60163,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
-      <c r="B87" s="52"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="9" t="s">
         <v>750</v>
       </c>
@@ -60219,8 +60225,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="B88" s="52"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="9" t="s">
         <v>751</v>
       </c>
@@ -60281,8 +60287,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="50"/>
-      <c r="B89" s="53"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="10" t="s">
         <v>752</v>
       </c>
@@ -60343,7 +60349,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="45" t="s">
         <v>777</v>
       </c>
@@ -60401,8 +60407,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
-      <c r="B91" s="52"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="49"/>
       <c r="C91" s="9" t="s">
         <v>750</v>
       </c>
@@ -60463,8 +60469,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="50"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="49"/>
       <c r="C92" s="9" t="s">
         <v>751</v>
       </c>
@@ -60525,8 +60531,8 @@
       </c>
     </row>
     <row r="93" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="50"/>
-      <c r="B93" s="53"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="10" t="s">
         <v>752</v>
       </c>
@@ -60587,7 +60593,7 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="50"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="45" t="s">
         <v>778</v>
       </c>
@@ -60645,8 +60651,8 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
-      <c r="B95" s="52"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="9" t="s">
         <v>750</v>
       </c>
@@ -60707,8 +60713,8 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
-      <c r="B96" s="52"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="9" t="s">
         <v>751</v>
       </c>
@@ -60769,8 +60775,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="50"/>
-      <c r="B97" s="53"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="10" t="s">
         <v>752</v>
       </c>
@@ -60831,7 +60837,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="45" t="s">
         <v>779</v>
       </c>
@@ -60889,8 +60895,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99" s="50"/>
-      <c r="B99" s="52"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="49"/>
       <c r="C99" s="9" t="s">
         <v>750</v>
       </c>
@@ -60951,8 +60957,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100" s="50"/>
-      <c r="B100" s="52"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="9" t="s">
         <v>751</v>
       </c>
@@ -61013,8 +61019,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="50"/>
-      <c r="B101" s="53"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="50"/>
       <c r="C101" s="10" t="s">
         <v>752</v>
       </c>
@@ -61075,7 +61081,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A102" s="50"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="45" t="s">
         <v>780</v>
       </c>
@@ -61133,8 +61139,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103" s="50"/>
-      <c r="B103" s="52"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="49"/>
       <c r="C103" s="9" t="s">
         <v>750</v>
       </c>
@@ -61195,8 +61201,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A104" s="50"/>
-      <c r="B104" s="52"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="49"/>
       <c r="C104" s="9" t="s">
         <v>751</v>
       </c>
@@ -61257,8 +61263,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="50"/>
-      <c r="B105" s="53"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="50"/>
       <c r="C105" s="10" t="s">
         <v>752</v>
       </c>
@@ -61319,7 +61325,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="45" t="s">
         <v>781</v>
       </c>
@@ -61377,8 +61383,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A107" s="50"/>
-      <c r="B107" s="52"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="9" t="s">
         <v>750</v>
       </c>
@@ -61439,8 +61445,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A108" s="50"/>
-      <c r="B108" s="52"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="49"/>
       <c r="C108" s="9" t="s">
         <v>751</v>
       </c>
@@ -61501,8 +61507,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="50"/>
-      <c r="B109" s="53"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="10" t="s">
         <v>752</v>
       </c>
@@ -61563,7 +61569,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A110" s="50"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="45" t="s">
         <v>782</v>
       </c>
@@ -61621,8 +61627,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
-      <c r="B111" s="52"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="9" t="s">
         <v>750</v>
       </c>
@@ -61683,8 +61689,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="9" t="s">
         <v>751</v>
       </c>
@@ -61745,8 +61751,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="50"/>
-      <c r="B113" s="53"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="50"/>
       <c r="C113" s="10" t="s">
         <v>752</v>
       </c>
@@ -61807,7 +61813,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A114" s="50"/>
+      <c r="A114" s="52"/>
       <c r="B114" s="45" t="s">
         <v>783</v>
       </c>
@@ -61865,8 +61871,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A115" s="50"/>
-      <c r="B115" s="52"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="9" t="s">
         <v>750</v>
       </c>
@@ -61927,8 +61933,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A116" s="50"/>
-      <c r="B116" s="52"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="9" t="s">
         <v>751</v>
       </c>
@@ -61989,8 +61995,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="50"/>
-      <c r="B117" s="53"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="10" t="s">
         <v>752</v>
       </c>
@@ -62051,7 +62057,7 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A118" s="50"/>
+      <c r="A118" s="52"/>
       <c r="B118" s="45" t="s">
         <v>784</v>
       </c>
@@ -62109,8 +62115,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="50"/>
-      <c r="B119" s="52"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="49"/>
       <c r="C119" s="9" t="s">
         <v>750</v>
       </c>
@@ -62171,8 +62177,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A120" s="50"/>
-      <c r="B120" s="52"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="49"/>
       <c r="C120" s="9" t="s">
         <v>751</v>
       </c>
@@ -62233,8 +62239,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="50"/>
-      <c r="B121" s="53"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="50"/>
       <c r="C121" s="10" t="s">
         <v>752</v>
       </c>
@@ -62295,7 +62301,7 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A122" s="50"/>
+      <c r="A122" s="52"/>
       <c r="B122" s="45" t="s">
         <v>785</v>
       </c>
@@ -62353,8 +62359,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="50"/>
-      <c r="B123" s="52"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="9" t="s">
         <v>750</v>
       </c>
@@ -62415,8 +62421,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A124" s="50"/>
-      <c r="B124" s="52"/>
+      <c r="A124" s="52"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="9" t="s">
         <v>751</v>
       </c>
@@ -62477,8 +62483,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="50"/>
-      <c r="B125" s="53"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="10" t="s">
         <v>752</v>
       </c>
@@ -62539,7 +62545,7 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
+      <c r="A126" s="52"/>
       <c r="B126" s="45" t="s">
         <v>786</v>
       </c>
@@ -62597,8 +62603,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
-      <c r="B127" s="52"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="49"/>
       <c r="C127" s="9" t="s">
         <v>750</v>
       </c>
@@ -62659,8 +62665,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
-      <c r="B128" s="52"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="49"/>
       <c r="C128" s="9" t="s">
         <v>751</v>
       </c>
@@ -62721,8 +62727,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="51"/>
-      <c r="B129" s="53"/>
+      <c r="A129" s="53"/>
+      <c r="B129" s="50"/>
       <c r="C129" s="10" t="s">
         <v>752</v>
       </c>
@@ -62784,6 +62790,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A49"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A62:A129"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B101"/>
     <mergeCell ref="B122:B125"/>
     <mergeCell ref="B126:B129"/>
     <mergeCell ref="B102:B105"/>
@@ -62791,36 +62827,6 @@
     <mergeCell ref="B110:B113"/>
     <mergeCell ref="B114:B117"/>
     <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A49"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="A62:A129"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/beautified_analysis.xlsx
+++ b/beautified_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - HWR Berlin\SolvingGames\FTL\Data-Analysis-FTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="11_99002646D76E924F65F436D5DC67C28D48D4BDC7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00597AF9-8A8F-4F28-90B7-D17C989F2294}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="11_99002646D76E924F65F436D5DC67C28D48D4BDC7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{175DF713-A147-4C49-9102-B6F96733D66C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregation" sheetId="1" r:id="rId1"/>
@@ -2424,7 +2424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2440,6 +2440,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2813,7 +2837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2891,18 +2915,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2914,9 +2935,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -54843,8 +54876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54855,7 +54888,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>713</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -54866,7 +54899,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="15" t="s">
         <v>715</v>
       </c>
@@ -54875,7 +54908,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="16" t="s">
         <v>716</v>
       </c>
@@ -54884,7 +54917,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>717</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -54895,7 +54928,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="15" t="s">
         <v>719</v>
       </c>
@@ -54904,7 +54937,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="15" t="s">
         <v>720</v>
       </c>
@@ -54913,7 +54946,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="15" t="s">
         <v>721</v>
       </c>
@@ -54922,7 +54955,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="15" t="s">
         <v>722</v>
       </c>
@@ -54931,8 +54964,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="45" t="s">
         <v>723</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -54940,8 +54973,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="45" t="s">
         <v>787</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -54949,7 +54982,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="15" t="s">
         <v>724</v>
       </c>
@@ -54958,7 +54991,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="15" t="s">
         <v>725</v>
       </c>
@@ -54967,7 +55000,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="15" t="s">
         <v>726</v>
       </c>
@@ -54976,7 +55009,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="16" t="s">
         <v>727</v>
       </c>
@@ -54997,8 +55030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55079,10 +55112,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>747</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>748</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -55106,19 +55139,19 @@
       <c r="I2" s="29">
         <v>2372</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="56">
         <v>530</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="56">
         <v>525</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="56">
         <v>543</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="58">
         <v>376</v>
       </c>
-      <c r="N2" s="35">
+      <c r="N2" s="55">
         <v>398</v>
       </c>
       <c r="O2" s="29"/>
@@ -55141,8 +55174,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="9" t="s">
         <v>750</v>
       </c>
@@ -55164,19 +55197,19 @@
       <c r="I3" s="26">
         <v>4090.3103448275861</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="57">
         <v>542.31034482758616</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="57">
         <v>541.35714285714289</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="57">
         <v>625.07407407407402</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="59">
         <v>661.34615384615381</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="57">
         <v>722.81818181818187</v>
       </c>
       <c r="O3" s="26">
@@ -55205,8 +55238,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="9" t="s">
         <v>751</v>
       </c>
@@ -55269,8 +55302,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="10" t="s">
         <v>752</v>
       </c>
@@ -55333,8 +55366,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="46" t="s">
         <v>753</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -55358,19 +55391,19 @@
       <c r="I6" s="28">
         <v>50</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="56">
         <v>103</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="62">
         <v>140</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="56">
         <v>172</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="56">
         <v>81</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="56">
         <v>145</v>
       </c>
       <c r="O6" s="29"/>
@@ -55393,8 +55426,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="9" t="s">
         <v>750</v>
       </c>
@@ -55416,19 +55449,19 @@
       <c r="I7" s="25">
         <v>71.620689655172413</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="61">
         <v>122.72413793103451</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="60">
         <v>137.03571428571431</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="61">
         <v>191.85185185185179</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="61">
         <v>216.7692307692308</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="61">
         <v>279</v>
       </c>
       <c r="O7" s="26">
@@ -55457,8 +55490,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="9" t="s">
         <v>751</v>
       </c>
@@ -55521,8 +55554,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="10" t="s">
         <v>752</v>
       </c>
@@ -55585,8 +55618,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="46" t="s">
         <v>754</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -55610,19 +55643,19 @@
       <c r="I10" s="28">
         <v>104</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="63">
         <v>21.15384615384615</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="62">
         <v>53.727272727272727</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="63">
         <v>47.454545454545453</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="63">
         <v>21.23076923076923</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="63">
         <v>54.5</v>
       </c>
       <c r="O10" s="29"/>
@@ -55645,8 +55678,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="9" t="s">
         <v>750</v>
       </c>
@@ -55668,19 +55701,19 @@
       <c r="I11" s="25">
         <v>189.31034482758619</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="57">
         <v>43.846348479107107</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="60">
         <v>54.075036273250547</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="57">
         <v>55.858545158545162</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="57">
         <v>66.27966040369887</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="57">
         <v>74.587799700299698</v>
       </c>
       <c r="O11" s="26">
@@ -55709,8 +55742,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="9" t="s">
         <v>751</v>
       </c>
@@ -55773,8 +55806,8 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="10" t="s">
         <v>752</v>
       </c>
@@ -55837,8 +55870,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="46" t="s">
         <v>755</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -55887,8 +55920,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="9" t="s">
         <v>750</v>
       </c>
@@ -55941,8 +55974,8 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="9" t="s">
         <v>751</v>
       </c>
@@ -55995,8 +56028,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="10" t="s">
         <v>752</v>
       </c>
@@ -56049,8 +56082,8 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="46" t="s">
         <v>756</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -56099,8 +56132,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="9" t="s">
         <v>750</v>
       </c>
@@ -56153,8 +56186,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="9" t="s">
         <v>751</v>
       </c>
@@ -56207,8 +56240,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="10" t="s">
         <v>752</v>
       </c>
@@ -56261,10 +56294,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="51" t="s">
         <v>757</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="46" t="s">
         <v>757</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -56323,8 +56356,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="9" t="s">
         <v>750</v>
       </c>
@@ -56387,8 +56420,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="9" t="s">
         <v>751</v>
       </c>
@@ -56451,8 +56484,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="10" t="s">
         <v>752</v>
       </c>
@@ -56515,8 +56548,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="46" t="s">
         <v>758</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -56575,8 +56608,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="9" t="s">
         <v>750</v>
       </c>
@@ -56639,8 +56672,8 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="9" t="s">
         <v>751</v>
       </c>
@@ -56703,8 +56736,8 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="10" t="s">
         <v>752</v>
       </c>
@@ -56767,10 +56800,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="51" t="s">
         <v>759</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="46" t="s">
         <v>760</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -56827,8 +56860,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="9" t="s">
         <v>750</v>
       </c>
@@ -56889,8 +56922,8 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="9" t="s">
         <v>751</v>
       </c>
@@ -56951,8 +56984,8 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="10" t="s">
         <v>752</v>
       </c>
@@ -57013,8 +57046,8 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="46" t="s">
         <v>761</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -57063,8 +57096,8 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="9" t="s">
         <v>750</v>
       </c>
@@ -57117,8 +57150,8 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="9" t="s">
         <v>751</v>
       </c>
@@ -57171,8 +57204,8 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="10" t="s">
         <v>752</v>
       </c>
@@ -57225,8 +57258,8 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="46" t="s">
         <v>762</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -57285,8 +57318,8 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="9" t="s">
         <v>750</v>
       </c>
@@ -57349,8 +57382,8 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="9" t="s">
         <v>751</v>
       </c>
@@ -57413,8 +57446,8 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="10" t="s">
         <v>752</v>
       </c>
@@ -57477,8 +57510,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="46" t="s">
         <v>763</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -57537,8 +57570,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="9" t="s">
         <v>750</v>
       </c>
@@ -57601,8 +57634,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="9" t="s">
         <v>751</v>
       </c>
@@ -57665,8 +57698,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="52"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="10" t="s">
         <v>752</v>
       </c>
@@ -57729,8 +57762,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="46" t="s">
         <v>764</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -57789,8 +57822,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="9" t="s">
         <v>750</v>
       </c>
@@ -57853,8 +57886,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="49"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="9" t="s">
         <v>751</v>
       </c>
@@ -57917,8 +57950,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="52"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="10" t="s">
         <v>752</v>
       </c>
@@ -57981,10 +58014,10 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="51" t="s">
         <v>765</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="46" t="s">
         <v>766</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -58033,8 +58066,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="9" t="s">
         <v>750</v>
       </c>
@@ -58087,8 +58120,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="49"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="9" t="s">
         <v>751</v>
       </c>
@@ -58141,8 +58174,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="52"/>
-      <c r="B53" s="50"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="10" t="s">
         <v>752</v>
       </c>
@@ -58195,8 +58228,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="46" t="s">
         <v>767</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -58235,8 +58268,8 @@
       <c r="V54" s="30"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="49"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="9" t="s">
         <v>750</v>
       </c>
@@ -58289,8 +58322,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="49"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="9" t="s">
         <v>751</v>
       </c>
@@ -58341,8 +58374,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="52"/>
-      <c r="B57" s="50"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="10" t="s">
         <v>752</v>
       </c>
@@ -58395,8 +58428,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="45" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="46" t="s">
         <v>768</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -58453,8 +58486,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="49"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="9" t="s">
         <v>750</v>
       </c>
@@ -58515,8 +58548,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="49"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="9" t="s">
         <v>751</v>
       </c>
@@ -58577,8 +58610,8 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52"/>
-      <c r="B61" s="50"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="10" t="s">
         <v>752</v>
       </c>
@@ -58639,10 +58672,10 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="50" t="s">
         <v>769</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="46" t="s">
         <v>770</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -58699,8 +58732,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
-      <c r="B63" s="49"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="53"/>
       <c r="C63" s="9" t="s">
         <v>750</v>
       </c>
@@ -58761,8 +58794,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
-      <c r="B64" s="49"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="53"/>
       <c r="C64" s="9" t="s">
         <v>751</v>
       </c>
@@ -58823,8 +58856,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="52"/>
-      <c r="B65" s="50"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="10" t="s">
         <v>752</v>
       </c>
@@ -58885,8 +58918,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="45" t="s">
+      <c r="A66" s="51"/>
+      <c r="B66" s="46" t="s">
         <v>771</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -58943,8 +58976,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="53"/>
       <c r="C67" s="9" t="s">
         <v>750</v>
       </c>
@@ -59005,8 +59038,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="49"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="53"/>
       <c r="C68" s="9" t="s">
         <v>751</v>
       </c>
@@ -59067,8 +59100,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="52"/>
-      <c r="B69" s="50"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="10" t="s">
         <v>752</v>
       </c>
@@ -59129,8 +59162,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="52"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" s="46" t="s">
         <v>772</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -59187,8 +59220,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
-      <c r="B71" s="49"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="9" t="s">
         <v>750</v>
       </c>
@@ -59249,8 +59282,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
-      <c r="B72" s="49"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="9" t="s">
         <v>751</v>
       </c>
@@ -59311,8 +59344,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="52"/>
-      <c r="B73" s="50"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="10" t="s">
         <v>752</v>
       </c>
@@ -59373,8 +59406,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="51"/>
+      <c r="B74" s="46" t="s">
         <v>773</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -59431,8 +59464,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
-      <c r="B75" s="49"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="53"/>
       <c r="C75" s="9" t="s">
         <v>750</v>
       </c>
@@ -59493,8 +59526,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="9" t="s">
         <v>751</v>
       </c>
@@ -59555,8 +59588,8 @@
       </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="52"/>
-      <c r="B77" s="50"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="10" t="s">
         <v>752</v>
       </c>
@@ -59617,8 +59650,8 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
-      <c r="B78" s="45" t="s">
+      <c r="A78" s="51"/>
+      <c r="B78" s="46" t="s">
         <v>774</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -59675,8 +59708,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
-      <c r="B79" s="49"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="9" t="s">
         <v>750</v>
       </c>
@@ -59737,8 +59770,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="52"/>
-      <c r="B80" s="49"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="53"/>
       <c r="C80" s="9" t="s">
         <v>751</v>
       </c>
@@ -59799,8 +59832,8 @@
       </c>
     </row>
     <row r="81" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="52"/>
-      <c r="B81" s="50"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="10" t="s">
         <v>752</v>
       </c>
@@ -59861,8 +59894,8 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="45" t="s">
+      <c r="A82" s="51"/>
+      <c r="B82" s="46" t="s">
         <v>775</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -59919,8 +59952,8 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
-      <c r="B83" s="49"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="9" t="s">
         <v>750</v>
       </c>
@@ -59981,8 +60014,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="52"/>
-      <c r="B84" s="49"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="9" t="s">
         <v>751</v>
       </c>
@@ -60043,8 +60076,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="52"/>
-      <c r="B85" s="50"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="10" t="s">
         <v>752</v>
       </c>
@@ -60105,8 +60138,8 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="52"/>
-      <c r="B86" s="45" t="s">
+      <c r="A86" s="51"/>
+      <c r="B86" s="46" t="s">
         <v>776</v>
       </c>
       <c r="C86" s="8" t="s">
@@ -60163,8 +60196,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
-      <c r="B87" s="49"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="9" t="s">
         <v>750</v>
       </c>
@@ -60225,8 +60258,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
-      <c r="B88" s="49"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="9" t="s">
         <v>751</v>
       </c>
@@ -60287,8 +60320,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="52"/>
-      <c r="B89" s="50"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="10" t="s">
         <v>752</v>
       </c>
@@ -60349,8 +60382,8 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
-      <c r="B90" s="45" t="s">
+      <c r="A90" s="51"/>
+      <c r="B90" s="46" t="s">
         <v>777</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -60407,8 +60440,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="52"/>
-      <c r="B91" s="49"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="9" t="s">
         <v>750</v>
       </c>
@@ -60469,8 +60502,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
-      <c r="B92" s="49"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="9" t="s">
         <v>751</v>
       </c>
@@ -60531,8 +60564,8 @@
       </c>
     </row>
     <row r="93" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="52"/>
-      <c r="B93" s="50"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="10" t="s">
         <v>752</v>
       </c>
@@ -60593,8 +60626,8 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="52"/>
-      <c r="B94" s="45" t="s">
+      <c r="A94" s="51"/>
+      <c r="B94" s="46" t="s">
         <v>778</v>
       </c>
       <c r="C94" s="8" t="s">
@@ -60651,8 +60684,8 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
-      <c r="B95" s="49"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="9" t="s">
         <v>750</v>
       </c>
@@ -60713,8 +60746,8 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
-      <c r="B96" s="49"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="9" t="s">
         <v>751</v>
       </c>
@@ -60775,8 +60808,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="52"/>
-      <c r="B97" s="50"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="10" t="s">
         <v>752</v>
       </c>
@@ -60837,8 +60870,8 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
-      <c r="B98" s="45" t="s">
+      <c r="A98" s="51"/>
+      <c r="B98" s="46" t="s">
         <v>779</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -60895,8 +60928,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99" s="52"/>
-      <c r="B99" s="49"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="9" t="s">
         <v>750</v>
       </c>
@@ -60957,8 +60990,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100" s="52"/>
-      <c r="B100" s="49"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="9" t="s">
         <v>751</v>
       </c>
@@ -61019,8 +61052,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="52"/>
-      <c r="B101" s="50"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="54"/>
       <c r="C101" s="10" t="s">
         <v>752</v>
       </c>
@@ -61081,8 +61114,8 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A102" s="52"/>
-      <c r="B102" s="45" t="s">
+      <c r="A102" s="51"/>
+      <c r="B102" s="46" t="s">
         <v>780</v>
       </c>
       <c r="C102" s="8" t="s">
@@ -61139,8 +61172,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103" s="52"/>
-      <c r="B103" s="49"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="53"/>
       <c r="C103" s="9" t="s">
         <v>750</v>
       </c>
@@ -61201,8 +61234,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A104" s="52"/>
-      <c r="B104" s="49"/>
+      <c r="A104" s="51"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="9" t="s">
         <v>751</v>
       </c>
@@ -61263,8 +61296,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="52"/>
-      <c r="B105" s="50"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="10" t="s">
         <v>752</v>
       </c>
@@ -61325,8 +61358,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="52"/>
-      <c r="B106" s="45" t="s">
+      <c r="A106" s="51"/>
+      <c r="B106" s="46" t="s">
         <v>781</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -61383,8 +61416,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A107" s="52"/>
-      <c r="B107" s="49"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="9" t="s">
         <v>750</v>
       </c>
@@ -61445,8 +61478,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A108" s="52"/>
-      <c r="B108" s="49"/>
+      <c r="A108" s="51"/>
+      <c r="B108" s="53"/>
       <c r="C108" s="9" t="s">
         <v>751</v>
       </c>
@@ -61507,8 +61540,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="52"/>
-      <c r="B109" s="50"/>
+      <c r="A109" s="51"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="10" t="s">
         <v>752</v>
       </c>
@@ -61569,8 +61602,8 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A110" s="52"/>
-      <c r="B110" s="45" t="s">
+      <c r="A110" s="51"/>
+      <c r="B110" s="46" t="s">
         <v>782</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -61627,8 +61660,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A111" s="52"/>
-      <c r="B111" s="49"/>
+      <c r="A111" s="51"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="9" t="s">
         <v>750</v>
       </c>
@@ -61689,8 +61722,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A112" s="52"/>
-      <c r="B112" s="49"/>
+      <c r="A112" s="51"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="9" t="s">
         <v>751</v>
       </c>
@@ -61751,8 +61784,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="52"/>
-      <c r="B113" s="50"/>
+      <c r="A113" s="51"/>
+      <c r="B113" s="54"/>
       <c r="C113" s="10" t="s">
         <v>752</v>
       </c>
@@ -61813,8 +61846,8 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A114" s="52"/>
-      <c r="B114" s="45" t="s">
+      <c r="A114" s="51"/>
+      <c r="B114" s="46" t="s">
         <v>783</v>
       </c>
       <c r="C114" s="8" t="s">
@@ -61871,8 +61904,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A115" s="52"/>
-      <c r="B115" s="49"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="9" t="s">
         <v>750</v>
       </c>
@@ -61933,8 +61966,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A116" s="52"/>
-      <c r="B116" s="49"/>
+      <c r="A116" s="51"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="9" t="s">
         <v>751</v>
       </c>
@@ -61995,8 +62028,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="52"/>
-      <c r="B117" s="50"/>
+      <c r="A117" s="51"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="10" t="s">
         <v>752</v>
       </c>
@@ -62057,8 +62090,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A118" s="52"/>
-      <c r="B118" s="45" t="s">
+      <c r="A118" s="51"/>
+      <c r="B118" s="46" t="s">
         <v>784</v>
       </c>
       <c r="C118" s="8" t="s">
@@ -62115,8 +62148,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
-      <c r="B119" s="49"/>
+      <c r="A119" s="51"/>
+      <c r="B119" s="53"/>
       <c r="C119" s="9" t="s">
         <v>750</v>
       </c>
@@ -62177,8 +62210,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A120" s="52"/>
-      <c r="B120" s="49"/>
+      <c r="A120" s="51"/>
+      <c r="B120" s="53"/>
       <c r="C120" s="9" t="s">
         <v>751</v>
       </c>
@@ -62239,8 +62272,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="52"/>
-      <c r="B121" s="50"/>
+      <c r="A121" s="51"/>
+      <c r="B121" s="54"/>
       <c r="C121" s="10" t="s">
         <v>752</v>
       </c>
@@ -62301,8 +62334,8 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A122" s="52"/>
-      <c r="B122" s="45" t="s">
+      <c r="A122" s="51"/>
+      <c r="B122" s="46" t="s">
         <v>785</v>
       </c>
       <c r="C122" s="8" t="s">
@@ -62359,8 +62392,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
-      <c r="B123" s="49"/>
+      <c r="A123" s="51"/>
+      <c r="B123" s="53"/>
       <c r="C123" s="9" t="s">
         <v>750</v>
       </c>
@@ -62421,8 +62454,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A124" s="52"/>
-      <c r="B124" s="49"/>
+      <c r="A124" s="51"/>
+      <c r="B124" s="53"/>
       <c r="C124" s="9" t="s">
         <v>751</v>
       </c>
@@ -62483,8 +62516,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="52"/>
-      <c r="B125" s="50"/>
+      <c r="A125" s="51"/>
+      <c r="B125" s="54"/>
       <c r="C125" s="10" t="s">
         <v>752</v>
       </c>
@@ -62545,8 +62578,8 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A126" s="52"/>
-      <c r="B126" s="45" t="s">
+      <c r="A126" s="51"/>
+      <c r="B126" s="46" t="s">
         <v>786</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -62603,8 +62636,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A127" s="52"/>
-      <c r="B127" s="49"/>
+      <c r="A127" s="51"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="9" t="s">
         <v>750</v>
       </c>
@@ -62665,8 +62698,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A128" s="52"/>
-      <c r="B128" s="49"/>
+      <c r="A128" s="51"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="9" t="s">
         <v>751</v>
       </c>
@@ -62727,8 +62760,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="53"/>
-      <c r="B129" s="50"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="10" t="s">
         <v>752</v>
       </c>
@@ -62790,36 +62823,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A49"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="A62:A129"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B101"/>
     <mergeCell ref="B122:B125"/>
     <mergeCell ref="B126:B129"/>
     <mergeCell ref="B102:B105"/>
@@ -62827,6 +62830,36 @@
     <mergeCell ref="B110:B113"/>
     <mergeCell ref="B114:B117"/>
     <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A49"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A62:A129"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
